--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/CAR_CAT_ESPECIALIDAD.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/CAR_CAT_ESPECIALIDAD.xlsx
@@ -18,30 +18,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>IDESPECIALIDAD</t>
   </si>
   <si>
     <t>ESPECIALIDAD</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Fisico Matematicas</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Quimico biologicas</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Administrativo</t>
   </si>
 </sst>
 </file>
@@ -411,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -425,30 +407,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/CAR_CAT_ESPECIALIDAD.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/CAR_CAT_ESPECIALIDAD.xlsx
@@ -18,12 +18,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>IDESPECIALIDAD</t>
   </si>
   <si>
     <t>ESPECIALIDAD</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Fisico Matematicas</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Quimico Biologicas</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Administrativas</t>
   </si>
 </sst>
 </file>
@@ -393,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -407,6 +425,30 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
